--- a/biology/Zoologie/Butor_(oiseau)/Butor_(oiseau).xlsx
+++ b/biology/Zoologie/Butor_(oiseau)/Butor_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme Butor désigne des oiseaux échassiers de la famille des Ardeidae qui, en principe se distinguent par leurs cris qui rappellent le mugissement des bovins[1]. Ce terme dériverait du latin vulgaire *buti-taurus, Pline l'Ancien signale qu'à Arles on appelait le butor taurus[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme Butor désigne des oiseaux échassiers de la famille des Ardeidae qui, en principe se distinguent par leurs cris qui rappellent le mugissement des bovins. Ce terme dériverait du latin vulgaire *buti-taurus, Pline l'Ancien signale qu'à Arles on appelait le butor taurus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Noms en français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Butor d'Amérique — Botaurus lentiginosus (Rackett 1813)
 Butor d'Australie — Botaurus poiciloptilus (Wagler 1827)
